--- a/Jogos_do_Dia/2023-07-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <t>League</t>
   </si>
@@ -145,6 +145,9 @@
     <t>USA MLS</t>
   </si>
   <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -184,16 +187,34 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Ulsan</t>
   </si>
   <si>
     <t>Suwon Bluewings</t>
   </si>
   <si>
+    <t>Daejeon Citizen</t>
+  </si>
+  <si>
     <t>FC Seoul</t>
   </si>
   <si>
-    <t>Daejeon Citizen</t>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
   </si>
   <si>
     <t>Qingdao Jonoon</t>
@@ -202,15 +223,9 @@
     <t>Changchun Yatai</t>
   </si>
   <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -223,12 +238,12 @@
     <t>Häcken</t>
   </si>
   <si>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
     <t>SSC Farul</t>
   </si>
   <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
     <t>Slovan Bratislava</t>
   </si>
   <si>
@@ -241,28 +256,70 @@
     <t>Indy Eleven</t>
   </si>
   <si>
+    <t>New York RB</t>
+  </si>
+  <si>
     <t>New England Revolution</t>
   </si>
   <si>
     <t>Detroit City FC</t>
   </si>
   <si>
-    <t>New York RB</t>
-  </si>
-  <si>
     <t>Louisville City</t>
   </si>
   <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Cavalry FC</t>
+  </si>
+  <si>
+    <t>Tulsa Roughnecks</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>El Paso Locomotive</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
+    <t>Vancouver Whitecaps</t>
+  </si>
+  <si>
     <t>Incheon United</t>
   </si>
   <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
+    <t>Jeonbuk Motors</t>
+  </si>
+  <si>
     <t>Suwon</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Dalian Yifang</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Shenzhen</t>
@@ -271,15 +328,9 @@
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>Beijing Guoan</t>
-  </si>
-  <si>
     <t>Wuhan Three Towns</t>
   </si>
   <si>
-    <t>Dalian Yifang</t>
-  </si>
-  <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
@@ -292,12 +343,12 @@
     <t>The New Saints</t>
   </si>
   <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
     <t>Sheriff</t>
   </si>
   <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
     <t>Swift Hesperange</t>
   </si>
   <si>
@@ -310,16 +361,52 @@
     <t>Charleston Battery</t>
   </si>
   <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
     <t>Atlanta United FC</t>
   </si>
   <si>
     <t>Loudoun United</t>
   </si>
   <si>
-    <t>FC Cincinnati</t>
-  </si>
-  <si>
     <t>Pittsburgh Riverhounds</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>Montreal Impact</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
+    <t>Atlético Ottawa</t>
+  </si>
+  <si>
+    <t>Miami FC</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Memphis 901</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
+    <t>Austin</t>
   </si>
 </sst>
 </file>
@@ -681,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,25 +889,25 @@
         <v>45119</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="H2">
-        <v>4.17</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>5.56</v>
+        <v>5.1</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -835,10 +922,10 @@
         <v>3.15</v>
       </c>
       <c r="N2">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="O2">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="P2">
         <v>1.41</v>
@@ -909,25 +996,25 @@
         <v>45119</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G3">
-        <v>4.06</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I3">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -942,10 +1029,10 @@
         <v>2.8</v>
       </c>
       <c r="N3">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O3">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="P3">
         <v>1.48</v>
@@ -1016,103 +1103,103 @@
         <v>45119</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>4.27</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>5.39</v>
+        <v>1.86</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>1.25</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O4">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="P4">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="U4">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="V4">
-        <v>2.2</v>
+        <v>1.32</v>
       </c>
       <c r="W4">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="X4">
-        <v>0.5600000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y4">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Z4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA4">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="AB4">
-        <v>1.26</v>
+        <v>2.1</v>
       </c>
       <c r="AC4">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>4.67</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF4">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AG4">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AH4">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="AI4">
-        <v>3.42</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1123,103 +1210,103 @@
         <v>45119</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>1.56</v>
       </c>
       <c r="H5">
-        <v>3.56</v>
+        <v>3.7</v>
       </c>
       <c r="I5">
-        <v>2.31</v>
+        <v>4.55</v>
       </c>
       <c r="J5">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>1.25</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="O5">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="P5">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>1.72</v>
+        <v>1.12</v>
       </c>
       <c r="U5">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="V5">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="W5">
+        <v>1.9</v>
+      </c>
+      <c r="X5">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>1.69</v>
+      </c>
+      <c r="Z5">
         <v>1.5</v>
       </c>
-      <c r="X5">
-        <v>1.1</v>
-      </c>
-      <c r="Y5">
-        <v>1.63</v>
-      </c>
-      <c r="Z5">
-        <v>1.6</v>
-      </c>
       <c r="AA5">
-        <v>3.23</v>
+        <v>3.19</v>
       </c>
       <c r="AB5">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="AC5">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>4.67</v>
       </c>
       <c r="AE5">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AF5">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AG5">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AH5">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="AI5">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1230,103 +1317,103 @@
         <v>45119</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="H6">
-        <v>5.15</v>
+        <v>4.17</v>
       </c>
       <c r="I6">
-        <v>9.77</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="M6">
-        <v>3.89</v>
+        <v>3.23</v>
       </c>
       <c r="N6">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="P6">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
-        <v>3.22</v>
+        <v>2.74</v>
       </c>
       <c r="R6">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="T6">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="V6">
-        <v>3.36</v>
+        <v>1.58</v>
       </c>
       <c r="W6">
         <v>1.14</v>
       </c>
       <c r="X6">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="Y6">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>0.77</v>
+        <v>1.22</v>
       </c>
       <c r="AA6">
-        <v>2.24</v>
+        <v>3.22</v>
       </c>
       <c r="AB6">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AC6">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="AE6">
         <v>1.33</v>
       </c>
       <c r="AF6">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AG6">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AH6">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AI6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1337,100 +1424,100 @@
         <v>45119</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>2.31</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>1.37</v>
       </c>
       <c r="I7">
-        <v>2.84</v>
+        <v>3.83</v>
       </c>
       <c r="J7">
         <v>1.04</v>
       </c>
       <c r="K7">
-        <v>14.25</v>
+        <v>8.5</v>
       </c>
       <c r="L7">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M7">
-        <v>4.12</v>
+        <v>3.84</v>
       </c>
       <c r="N7">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="O7">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="P7">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="R7">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="S7">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="T7">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V7">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="W7">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="Y7">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="Z7">
         <v>1.6</v>
       </c>
       <c r="AA7">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="AB7">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AE7">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AF7">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AG7">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="AH7">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AI7">
         <v>3.8</v>
@@ -1444,103 +1531,103 @@
         <v>45119</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G8">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H8">
-        <v>3.72</v>
+        <v>1.46</v>
       </c>
       <c r="I8">
-        <v>1.87</v>
+        <v>12.31</v>
       </c>
       <c r="J8">
         <v>1.04</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M8">
-        <v>3.84</v>
+        <v>3.89</v>
       </c>
       <c r="N8">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="O8">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="P8">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q8">
-        <v>2.72</v>
+        <v>3.22</v>
       </c>
       <c r="R8">
-        <v>1.69</v>
+        <v>2.26</v>
       </c>
       <c r="S8">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U8">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="V8">
-        <v>1.25</v>
+        <v>3.36</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X8">
-        <v>1.29</v>
+        <v>0.17</v>
       </c>
       <c r="Y8">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="Z8">
-        <v>1.6</v>
+        <v>0.77</v>
       </c>
       <c r="AA8">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="AB8">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="AC8">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD8">
-        <v>1.5</v>
+        <v>4.33</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF8">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AG8">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="AI8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1551,100 +1638,100 @@
         <v>45119</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G9">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H9">
-        <v>3.61</v>
+        <v>1.32</v>
       </c>
       <c r="I9">
-        <v>4.41</v>
+        <v>5.91</v>
       </c>
       <c r="J9">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>14.25</v>
       </c>
       <c r="L9">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>4.12</v>
       </c>
       <c r="N9">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="O9">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="P9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="Q9">
-        <v>2.9</v>
+        <v>3.29</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="U9">
         <v>1.3</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X9">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="Y9">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="Z9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA9">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="AB9">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="AE9">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AF9">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AG9">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AH9">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AI9">
         <v>3.8</v>
@@ -1658,94 +1745,94 @@
         <v>45119</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G10">
-        <v>2.33</v>
+        <v>4.8</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>1.31</v>
       </c>
       <c r="I10">
-        <v>3.09</v>
+        <v>7.23</v>
       </c>
       <c r="J10">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>9.449999999999999</v>
+        <v>12</v>
       </c>
       <c r="L10">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M10">
-        <v>3.23</v>
+        <v>3.75</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O10">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="P10">
+        <v>1.38</v>
+      </c>
+      <c r="Q10">
+        <v>2.9</v>
+      </c>
+      <c r="R10">
+        <v>1.75</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>1.23</v>
+      </c>
+      <c r="U10">
+        <v>1.3</v>
+      </c>
+      <c r="V10">
+        <v>1.9</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>1.88</v>
+      </c>
+      <c r="Y10">
+        <v>1.75</v>
+      </c>
+      <c r="Z10">
+        <v>1.8</v>
+      </c>
+      <c r="AA10">
+        <v>3.55</v>
+      </c>
+      <c r="AB10">
         <v>1.44</v>
       </c>
-      <c r="Q10">
-        <v>2.74</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>1.91</v>
-      </c>
-      <c r="T10">
-        <v>1.35</v>
-      </c>
-      <c r="U10">
-        <v>1.35</v>
-      </c>
-      <c r="V10">
-        <v>1.58</v>
-      </c>
-      <c r="W10">
-        <v>1.14</v>
-      </c>
-      <c r="X10">
-        <v>0.29</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
-        <v>1.22</v>
-      </c>
-      <c r="AA10">
-        <v>3.22</v>
-      </c>
-      <c r="AB10">
-        <v>1.8</v>
-      </c>
       <c r="AC10">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AE10">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF10">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AG10">
         <v>2.03</v>
@@ -1765,25 +1852,25 @@
         <v>45119</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G11">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H11">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -1798,10 +1885,10 @@
         <v>3.3</v>
       </c>
       <c r="N11">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="O11">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1840,28 +1927,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1872,16 +1959,16 @@
         <v>45119</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <v>1.83</v>
@@ -1956,7 +2043,7 @@
         <v>4.03</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF12">
         <v>1.35</v>
@@ -1979,25 +2066,25 @@
         <v>45119</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G13">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="H13">
-        <v>7.21</v>
+        <v>4.7</v>
       </c>
       <c r="I13">
-        <v>13.5</v>
+        <v>8.75</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2012,10 +2099,10 @@
         <v>4.33</v>
       </c>
       <c r="N13">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="O13">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="P13">
         <v>1.28</v>
@@ -2054,28 +2141,28 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2086,16 +2173,16 @@
         <v>45119</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>1.14</v>
@@ -2161,242 +2248,242 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15">
-        <v>9543</v>
+      <c r="A15" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <v>45119</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G15">
-        <v>2.23</v>
+        <v>2.63</v>
       </c>
       <c r="H15">
-        <v>3.16</v>
+        <v>2.9</v>
       </c>
       <c r="I15">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="J15">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
+        <v>1.33</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2.15</v>
+      </c>
+      <c r="O15">
+        <v>1.6</v>
+      </c>
+      <c r="P15">
+        <v>1.47</v>
+      </c>
+      <c r="Q15">
+        <v>2.44</v>
+      </c>
+      <c r="R15">
+        <v>1.8</v>
+      </c>
+      <c r="S15">
+        <v>1.91</v>
+      </c>
+      <c r="T15">
+        <v>1.36</v>
+      </c>
+      <c r="U15">
+        <v>1.33</v>
+      </c>
+      <c r="V15">
         <v>1.4</v>
       </c>
-      <c r="M15">
-        <v>2.8</v>
-      </c>
-      <c r="N15">
-        <v>2.35</v>
-      </c>
-      <c r="O15">
-        <v>1.57</v>
-      </c>
-      <c r="P15">
-        <v>1.44</v>
-      </c>
-      <c r="Q15">
-        <v>2.55</v>
-      </c>
-      <c r="R15">
-        <v>1.95</v>
-      </c>
-      <c r="S15">
-        <v>1.75</v>
-      </c>
-      <c r="T15">
-        <v>1.29</v>
-      </c>
-      <c r="U15">
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
         <v>1.31</v>
       </c>
-      <c r="V15">
-        <v>1.71</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16">
+        <v>9543</v>
       </c>
       <c r="B16" s="2">
         <v>45119</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G16">
-        <v>2.69</v>
+        <v>2.13</v>
       </c>
       <c r="H16">
-        <v>2.98</v>
+        <v>2.89</v>
       </c>
       <c r="I16">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="J16">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="O16">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="P16">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q16">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T16">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U16">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="V16">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2407,25 +2494,25 @@
         <v>45119</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G17">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="H17">
-        <v>6.2</v>
+        <v>5.55</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2440,10 +2527,10 @@
         <v>4.6</v>
       </c>
       <c r="N17">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="P17">
         <v>1.26</v>
@@ -2482,28 +2569,28 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2514,25 +2601,25 @@
         <v>45119</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G18">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="H18">
-        <v>5.61</v>
+        <v>6.07</v>
       </c>
       <c r="I18">
-        <v>7.48</v>
+        <v>7.71</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2547,10 +2634,10 @@
         <v>6</v>
       </c>
       <c r="N18">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="P18">
         <v>1.2</v>
@@ -2598,16 +2685,16 @@
         <v>4.39</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AI18">
         <v>1.95</v>
@@ -2621,25 +2708,25 @@
         <v>45119</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G19">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="H19">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="I19">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -2654,10 +2741,10 @@
         <v>3.5</v>
       </c>
       <c r="N19">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="P19">
         <v>1.35</v>
@@ -2705,7 +2792,7 @@
         <v>3.33</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF19">
         <v>1.47</v>
@@ -2728,25 +2815,25 @@
         <v>45119</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G20">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H20">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J20">
         <v>1.05</v>
@@ -2761,10 +2848,10 @@
         <v>3.5</v>
       </c>
       <c r="N20">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O20">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="P20">
         <v>1.36</v>
@@ -2803,25 +2890,25 @@
         <v>2.98</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2835,317 +2922,317 @@
         <v>45119</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G21">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="H21">
-        <v>2.37</v>
+        <v>3.35</v>
       </c>
       <c r="I21">
-        <v>3.78</v>
+        <v>3.95</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K21">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="L21">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M21">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
+        <v>1.94</v>
+      </c>
+      <c r="O21">
+        <v>1.76</v>
+      </c>
+      <c r="P21">
+        <v>1.36</v>
+      </c>
+      <c r="Q21">
+        <v>2.9</v>
+      </c>
+      <c r="R21">
+        <v>1.63</v>
+      </c>
+      <c r="S21">
+        <v>2.1</v>
+      </c>
+      <c r="T21">
+        <v>1.35</v>
+      </c>
+      <c r="U21">
+        <v>1.3</v>
+      </c>
+      <c r="V21">
+        <v>1.62</v>
+      </c>
+      <c r="W21">
+        <v>1.73</v>
+      </c>
+      <c r="X21">
+        <v>1.4</v>
+      </c>
+      <c r="Y21">
         <v>1.61</v>
       </c>
-      <c r="O21">
-        <v>2.05</v>
-      </c>
-      <c r="P21">
-        <v>1.28</v>
-      </c>
-      <c r="Q21">
-        <v>3.6</v>
-      </c>
-      <c r="R21">
-        <v>1.53</v>
-      </c>
-      <c r="S21">
-        <v>2.5</v>
-      </c>
-      <c r="T21">
-        <v>1.25</v>
-      </c>
-      <c r="U21">
-        <v>1.2</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
-      <c r="W21">
-        <v>2.4</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1.5</v>
-      </c>
       <c r="Z21">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AA21">
-        <v>2.67</v>
+        <v>3.04</v>
       </c>
       <c r="AB21">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AC21">
         <v>8</v>
       </c>
       <c r="AD21">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="AE21">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AF21">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AG21">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="AH21">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="AI21">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
         <v>45119</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G22">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K22">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L22">
+        <v>1.18</v>
+      </c>
+      <c r="M22">
+        <v>4.75</v>
+      </c>
+      <c r="N22">
+        <v>1.56</v>
+      </c>
+      <c r="O22">
+        <v>2.27</v>
+      </c>
+      <c r="P22">
         <v>1.28</v>
       </c>
-      <c r="M22">
-        <v>3.5</v>
-      </c>
-      <c r="N22">
-        <v>1.75</v>
-      </c>
-      <c r="O22">
-        <v>1.87</v>
-      </c>
-      <c r="P22">
-        <v>1.38</v>
-      </c>
       <c r="Q22">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
         <v>1.2</v>
       </c>
-      <c r="U22">
-        <v>1.22</v>
-      </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>2.4</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="X22">
-        <v>0.6</v>
-      </c>
       <c r="Y22">
+        <v>1.5</v>
+      </c>
+      <c r="Z22">
         <v>1.17</v>
       </c>
-      <c r="Z22">
-        <v>1.31</v>
-      </c>
       <c r="AA22">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>45119</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G23">
-        <v>2.47</v>
+        <v>1.61</v>
       </c>
       <c r="H23">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="J23">
         <v>1.04</v>
       </c>
       <c r="K23">
-        <v>13.25</v>
+        <v>12.5</v>
       </c>
       <c r="L23">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="O23">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="P23">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q23">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R23">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="U23">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V23">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="Y23">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="Z23">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AA23">
-        <v>3.04</v>
+        <v>2.48</v>
       </c>
       <c r="AB23">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC23">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD23">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="AE23">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AF23">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AG23">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="AH23">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="AI23">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3156,25 +3243,25 @@
         <v>45119</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H24">
         <v>3.2</v>
       </c>
       <c r="I24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3189,10 +3276,10 @@
         <v>3.5</v>
       </c>
       <c r="N24">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O24">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="P24">
         <v>1.36</v>
@@ -3231,28 +3318,1312 @@
         <v>3</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI24">
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25">
+        <v>1.8</v>
+      </c>
+      <c r="H25">
+        <v>3.65</v>
+      </c>
+      <c r="I25">
+        <v>3.35</v>
+      </c>
+      <c r="J25">
+        <v>1.03</v>
+      </c>
+      <c r="K25">
+        <v>16.75</v>
+      </c>
+      <c r="L25">
+        <v>1.2</v>
+      </c>
+      <c r="M25">
+        <v>4.6</v>
+      </c>
+      <c r="N25">
+        <v>1.55</v>
+      </c>
+      <c r="O25">
+        <v>2.29</v>
+      </c>
+      <c r="P25">
+        <v>1.3</v>
+      </c>
+      <c r="Q25">
+        <v>3.3</v>
+      </c>
+      <c r="R25">
+        <v>1.58</v>
+      </c>
+      <c r="S25">
+        <v>2.3</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>1.28</v>
+      </c>
+      <c r="V25">
+        <v>1.85</v>
+      </c>
+      <c r="W25">
+        <v>2.3</v>
+      </c>
+      <c r="X25">
+        <v>1.18</v>
+      </c>
+      <c r="Y25">
+        <v>1.39</v>
+      </c>
+      <c r="Z25">
+        <v>1.33</v>
+      </c>
+      <c r="AA25">
+        <v>2.72</v>
+      </c>
+      <c r="AB25">
+        <v>1.82</v>
+      </c>
+      <c r="AC25">
+        <v>8</v>
+      </c>
+      <c r="AD25">
+        <v>2.33</v>
+      </c>
+      <c r="AE25">
+        <v>1.22</v>
+      </c>
+      <c r="AF25">
+        <v>1.42</v>
+      </c>
+      <c r="AG25">
+        <v>1.74</v>
+      </c>
+      <c r="AH25">
+        <v>2.23</v>
+      </c>
+      <c r="AI25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>1.91</v>
+      </c>
+      <c r="H26">
+        <v>3.3</v>
+      </c>
+      <c r="I26">
+        <v>3.3</v>
+      </c>
+      <c r="J26">
+        <v>1.03</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>1.28</v>
+      </c>
+      <c r="M26">
+        <v>3.75</v>
+      </c>
+      <c r="N26">
+        <v>1.87</v>
+      </c>
+      <c r="O26">
+        <v>1.83</v>
+      </c>
+      <c r="P26">
+        <v>1.36</v>
+      </c>
+      <c r="Q26">
+        <v>3.1</v>
+      </c>
+      <c r="R26">
+        <v>1.72</v>
+      </c>
+      <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>1.28</v>
+      </c>
+      <c r="U26">
+        <v>1.22</v>
+      </c>
+      <c r="V26">
+        <v>1.9</v>
+      </c>
+      <c r="W26">
+        <v>2.36</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1.59</v>
+      </c>
+      <c r="Z26">
+        <v>1.38</v>
+      </c>
+      <c r="AA26">
+        <v>2.97</v>
+      </c>
+      <c r="AB26">
+        <v>1.64</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>2.67</v>
+      </c>
+      <c r="AE26">
+        <v>1.28</v>
+      </c>
+      <c r="AF26">
+        <v>1.5</v>
+      </c>
+      <c r="AG26">
+        <v>1.93</v>
+      </c>
+      <c r="AH26">
+        <v>2.5</v>
+      </c>
+      <c r="AI26">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27">
+        <v>1.55</v>
+      </c>
+      <c r="H27">
+        <v>3.8</v>
+      </c>
+      <c r="I27">
+        <v>4.55</v>
+      </c>
+      <c r="J27">
+        <v>1.04</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>1.25</v>
+      </c>
+      <c r="M27">
+        <v>3.75</v>
+      </c>
+      <c r="N27">
+        <v>1.68</v>
+      </c>
+      <c r="O27">
+        <v>2.05</v>
+      </c>
+      <c r="P27">
+        <v>1.33</v>
+      </c>
+      <c r="Q27">
+        <v>3.25</v>
+      </c>
+      <c r="R27">
+        <v>1.7</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>1.18</v>
+      </c>
+      <c r="U27">
+        <v>1.25</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>0.45</v>
+      </c>
+      <c r="Y27">
+        <v>1.12</v>
+      </c>
+      <c r="Z27">
+        <v>1.14</v>
+      </c>
+      <c r="AA27">
+        <v>2.26</v>
+      </c>
+      <c r="AB27">
+        <v>1.64</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>2.67</v>
+      </c>
+      <c r="AE27">
+        <v>1.29</v>
+      </c>
+      <c r="AF27">
+        <v>1.53</v>
+      </c>
+      <c r="AG27">
+        <v>1.95</v>
+      </c>
+      <c r="AH27">
+        <v>2.55</v>
+      </c>
+      <c r="AI27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28">
+        <v>1.8</v>
+      </c>
+      <c r="H28">
+        <v>3.6</v>
+      </c>
+      <c r="I28">
+        <v>3.4</v>
+      </c>
+      <c r="J28">
+        <v>1.04</v>
+      </c>
+      <c r="K28">
+        <v>15.5</v>
+      </c>
+      <c r="L28">
+        <v>1.22</v>
+      </c>
+      <c r="M28">
+        <v>4.4</v>
+      </c>
+      <c r="N28">
+        <v>1.6</v>
+      </c>
+      <c r="O28">
+        <v>2.19</v>
+      </c>
+      <c r="P28">
+        <v>1.32</v>
+      </c>
+      <c r="Q28">
+        <v>3.2</v>
+      </c>
+      <c r="R28">
+        <v>1.67</v>
+      </c>
+      <c r="S28">
+        <v>2.1</v>
+      </c>
+      <c r="T28">
+        <v>1.24</v>
+      </c>
+      <c r="U28">
+        <v>1.27</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>1.45</v>
+      </c>
+      <c r="X28">
+        <v>1.82</v>
+      </c>
+      <c r="Y28">
+        <v>1.72</v>
+      </c>
+      <c r="Z28">
+        <v>1.5</v>
+      </c>
+      <c r="AA28">
+        <v>3.22</v>
+      </c>
+      <c r="AB28">
+        <v>1.55</v>
+      </c>
+      <c r="AC28">
+        <v>8.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.01</v>
+      </c>
+      <c r="AE28">
+        <v>1.29</v>
+      </c>
+      <c r="AF28">
+        <v>1.53</v>
+      </c>
+      <c r="AG28">
+        <v>1.95</v>
+      </c>
+      <c r="AH28">
+        <v>2.55</v>
+      </c>
+      <c r="AI28">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>1.94</v>
+      </c>
+      <c r="H29">
+        <v>3.38</v>
+      </c>
+      <c r="I29">
+        <v>3.74</v>
+      </c>
+      <c r="J29">
+        <v>1.05</v>
+      </c>
+      <c r="K29">
+        <v>9.75</v>
+      </c>
+      <c r="L29">
+        <v>1.31</v>
+      </c>
+      <c r="M29">
+        <v>3.1</v>
+      </c>
+      <c r="N29">
+        <v>1.84</v>
+      </c>
+      <c r="O29">
+        <v>1.68</v>
+      </c>
+      <c r="P29">
+        <v>1.42</v>
+      </c>
+      <c r="Q29">
+        <v>2.66</v>
+      </c>
+      <c r="R29">
+        <v>1.83</v>
+      </c>
+      <c r="S29">
+        <v>1.86</v>
+      </c>
+      <c r="T29">
+        <v>1.25</v>
+      </c>
+      <c r="U29">
+        <v>1.29</v>
+      </c>
+      <c r="V29">
+        <v>1.8</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>0.83</v>
+      </c>
+      <c r="Y29">
+        <v>1.33</v>
+      </c>
+      <c r="Z29">
+        <v>1.12</v>
+      </c>
+      <c r="AA29">
+        <v>2.45</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>2.02</v>
+      </c>
+      <c r="H30">
+        <v>3.3</v>
+      </c>
+      <c r="I30">
+        <v>2.98</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1.66</v>
+      </c>
+      <c r="O30">
+        <v>2.09</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1.13</v>
+      </c>
+      <c r="X30">
+        <v>0.38</v>
+      </c>
+      <c r="Y30">
+        <v>1.5</v>
+      </c>
+      <c r="Z30">
+        <v>1.15</v>
+      </c>
+      <c r="AA30">
+        <v>2.65</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31">
+        <v>2.2</v>
+      </c>
+      <c r="H31">
+        <v>3.3</v>
+      </c>
+      <c r="I31">
+        <v>3.3</v>
+      </c>
+      <c r="J31">
+        <v>1.04</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>1.25</v>
+      </c>
+      <c r="M31">
+        <v>3.6</v>
+      </c>
+      <c r="N31">
+        <v>1.89</v>
+      </c>
+      <c r="O31">
+        <v>1.81</v>
+      </c>
+      <c r="P31">
+        <v>1.44</v>
+      </c>
+      <c r="Q31">
+        <v>2.63</v>
+      </c>
+      <c r="R31">
+        <v>1.91</v>
+      </c>
+      <c r="S31">
+        <v>1.91</v>
+      </c>
+      <c r="T31">
+        <v>1.29</v>
+      </c>
+      <c r="U31">
+        <v>1.3</v>
+      </c>
+      <c r="V31">
+        <v>1.7</v>
+      </c>
+      <c r="W31">
+        <v>0.8</v>
+      </c>
+      <c r="X31">
+        <v>0.64</v>
+      </c>
+      <c r="Y31">
+        <v>1.46</v>
+      </c>
+      <c r="Z31">
+        <v>1.18</v>
+      </c>
+      <c r="AA31">
+        <v>2.64</v>
+      </c>
+      <c r="AB31">
+        <v>1.54</v>
+      </c>
+      <c r="AC31">
+        <v>6.25</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>1.23</v>
+      </c>
+      <c r="AF31">
+        <v>1.44</v>
+      </c>
+      <c r="AG31">
+        <v>1.78</v>
+      </c>
+      <c r="AH31">
+        <v>2.35</v>
+      </c>
+      <c r="AI31">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32">
+        <v>2.05</v>
+      </c>
+      <c r="H32">
+        <v>3.35</v>
+      </c>
+      <c r="I32">
+        <v>2.9</v>
+      </c>
+      <c r="J32">
+        <v>1.04</v>
+      </c>
+      <c r="K32">
+        <v>12.25</v>
+      </c>
+      <c r="L32">
+        <v>1.26</v>
+      </c>
+      <c r="M32">
+        <v>3.5</v>
+      </c>
+      <c r="N32">
+        <v>1.89</v>
+      </c>
+      <c r="O32">
+        <v>1.89</v>
+      </c>
+      <c r="P32">
+        <v>1.36</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>1.72</v>
+      </c>
+      <c r="S32">
+        <v>2.05</v>
+      </c>
+      <c r="T32">
+        <v>1.25</v>
+      </c>
+      <c r="U32">
+        <v>1.25</v>
+      </c>
+      <c r="V32">
+        <v>1.82</v>
+      </c>
+      <c r="W32">
+        <v>1.44</v>
+      </c>
+      <c r="X32">
+        <v>1.56</v>
+      </c>
+      <c r="Y32">
+        <v>1.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.74</v>
+      </c>
+      <c r="AA32">
+        <v>3.24</v>
+      </c>
+      <c r="AB32">
+        <v>1.89</v>
+      </c>
+      <c r="AC32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD32">
+        <v>2.11</v>
+      </c>
+      <c r="AE32">
+        <v>1.2</v>
+      </c>
+      <c r="AF32">
+        <v>1.39</v>
+      </c>
+      <c r="AG32">
+        <v>1.73</v>
+      </c>
+      <c r="AH32">
+        <v>2.14</v>
+      </c>
+      <c r="AI32">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33">
+        <v>2.05</v>
+      </c>
+      <c r="H33">
+        <v>3.25</v>
+      </c>
+      <c r="I33">
+        <v>2.94</v>
+      </c>
+      <c r="J33">
+        <v>1.04</v>
+      </c>
+      <c r="K33">
+        <v>12.25</v>
+      </c>
+      <c r="L33">
+        <v>1.24</v>
+      </c>
+      <c r="M33">
+        <v>3.67</v>
+      </c>
+      <c r="N33">
+        <v>1.69</v>
+      </c>
+      <c r="O33">
+        <v>1.84</v>
+      </c>
+      <c r="P33">
+        <v>1.35</v>
+      </c>
+      <c r="Q33">
+        <v>2.9</v>
+      </c>
+      <c r="R33">
+        <v>1.65</v>
+      </c>
+      <c r="S33">
+        <v>2.18</v>
+      </c>
+      <c r="T33">
+        <v>1.25</v>
+      </c>
+      <c r="U33">
+        <v>1.29</v>
+      </c>
+      <c r="V33">
+        <v>1.83</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>2.17</v>
+      </c>
+      <c r="Y33">
+        <v>1.38</v>
+      </c>
+      <c r="Z33">
+        <v>1.7</v>
+      </c>
+      <c r="AA33">
+        <v>3.08</v>
+      </c>
+      <c r="AB33">
+        <v>1.75</v>
+      </c>
+      <c r="AC33">
+        <v>8.5</v>
+      </c>
+      <c r="AD33">
+        <v>2.41</v>
+      </c>
+      <c r="AE33">
+        <v>1.26</v>
+      </c>
+      <c r="AF33">
+        <v>1.53</v>
+      </c>
+      <c r="AG33">
+        <v>1.88</v>
+      </c>
+      <c r="AH33">
+        <v>2.33</v>
+      </c>
+      <c r="AI33">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34">
+        <v>1.39</v>
+      </c>
+      <c r="H34">
+        <v>4.45</v>
+      </c>
+      <c r="I34">
+        <v>5.4</v>
+      </c>
+      <c r="J34">
+        <v>1.02</v>
+      </c>
+      <c r="K34">
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <v>1.13</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>1.5</v>
+      </c>
+      <c r="O34">
+        <v>2.55</v>
+      </c>
+      <c r="P34">
+        <v>1.25</v>
+      </c>
+      <c r="Q34">
+        <v>3.7</v>
+      </c>
+      <c r="R34">
+        <v>1.57</v>
+      </c>
+      <c r="S34">
+        <v>2.3</v>
+      </c>
+      <c r="T34">
+        <v>1.18</v>
+      </c>
+      <c r="U34">
+        <v>1.21</v>
+      </c>
+      <c r="V34">
+        <v>2.57</v>
+      </c>
+      <c r="W34">
+        <v>1.91</v>
+      </c>
+      <c r="X34">
+        <v>1.6</v>
+      </c>
+      <c r="Y34">
+        <v>1.93</v>
+      </c>
+      <c r="Z34">
+        <v>1.42</v>
+      </c>
+      <c r="AA34">
+        <v>3.35</v>
+      </c>
+      <c r="AB34">
+        <v>1.45</v>
+      </c>
+      <c r="AC34">
+        <v>9</v>
+      </c>
+      <c r="AD34">
+        <v>3.32</v>
+      </c>
+      <c r="AE34">
+        <v>1.22</v>
+      </c>
+      <c r="AF34">
+        <v>1.42</v>
+      </c>
+      <c r="AG34">
+        <v>1.74</v>
+      </c>
+      <c r="AH34">
+        <v>2.23</v>
+      </c>
+      <c r="AI34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35">
+        <v>2.55</v>
+      </c>
+      <c r="H35">
+        <v>3.2</v>
+      </c>
+      <c r="I35">
+        <v>2.36</v>
+      </c>
+      <c r="J35">
+        <v>1.05</v>
+      </c>
+      <c r="K35">
+        <v>12.75</v>
+      </c>
+      <c r="L35">
+        <v>1.26</v>
+      </c>
+      <c r="M35">
+        <v>3.92</v>
+      </c>
+      <c r="N35">
+        <v>1.85</v>
+      </c>
+      <c r="O35">
+        <v>1.85</v>
+      </c>
+      <c r="P35">
+        <v>1.35</v>
+      </c>
+      <c r="Q35">
+        <v>2.95</v>
+      </c>
+      <c r="R35">
+        <v>1.57</v>
+      </c>
+      <c r="S35">
+        <v>2.25</v>
+      </c>
+      <c r="T35">
+        <v>1.42</v>
+      </c>
+      <c r="U35">
+        <v>1.32</v>
+      </c>
+      <c r="V35">
+        <v>1.55</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>1.4</v>
+      </c>
+      <c r="Y35">
+        <v>1.43</v>
+      </c>
+      <c r="Z35">
+        <v>1.29</v>
+      </c>
+      <c r="AA35">
+        <v>2.72</v>
+      </c>
+      <c r="AB35">
+        <v>1.75</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>2.44</v>
+      </c>
+      <c r="AE35">
+        <v>1.22</v>
+      </c>
+      <c r="AF35">
+        <v>1.42</v>
+      </c>
+      <c r="AG35">
+        <v>1.74</v>
+      </c>
+      <c r="AH35">
+        <v>2.23</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36">
+        <v>1.62</v>
+      </c>
+      <c r="H36">
+        <v>3.95</v>
+      </c>
+      <c r="I36">
+        <v>3.9</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>1.18</v>
+      </c>
+      <c r="M36">
+        <v>4.75</v>
+      </c>
+      <c r="N36">
+        <v>1.68</v>
+      </c>
+      <c r="O36">
+        <v>2.07</v>
+      </c>
+      <c r="P36">
+        <v>1.3</v>
+      </c>
+      <c r="Q36">
+        <v>3.3</v>
+      </c>
+      <c r="R36">
+        <v>1.68</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>1.22</v>
+      </c>
+      <c r="U36">
+        <v>1.18</v>
+      </c>
+      <c r="V36">
+        <v>2.15</v>
+      </c>
+      <c r="W36">
+        <v>1.73</v>
+      </c>
+      <c r="X36">
+        <v>1.1</v>
+      </c>
+      <c r="Y36">
+        <v>1.79</v>
+      </c>
+      <c r="Z36">
+        <v>1.27</v>
+      </c>
+      <c r="AA36">
+        <v>3.06</v>
+      </c>
+      <c r="AB36">
+        <v>1.41</v>
+      </c>
+      <c r="AC36">
+        <v>9</v>
+      </c>
+      <c r="AD36">
+        <v>3.49</v>
+      </c>
+      <c r="AE36">
+        <v>1.24</v>
+      </c>
+      <c r="AF36">
+        <v>1.44</v>
+      </c>
+      <c r="AG36">
+        <v>1.8</v>
+      </c>
+      <c r="AH36">
+        <v>2.3</v>
+      </c>
+      <c r="AI36">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>League</t>
   </si>
@@ -127,6 +127,9 @@
     <t>China Chinese Super League</t>
   </si>
   <si>
+    <t>Europe UEFA Champions League</t>
+  </si>
+  <si>
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
@@ -136,12 +139,12 @@
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>USA USL Championship</t>
-  </si>
-  <si>
     <t>USA MLS</t>
   </si>
   <si>
@@ -202,30 +205,30 @@
     <t>Ulsan</t>
   </si>
   <si>
+    <t>FC Seoul</t>
+  </si>
+  <si>
     <t>Suwon Bluewings</t>
   </si>
   <si>
     <t>Daejeon Citizen</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Shanghai SIPG</t>
+  </si>
+  <si>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
+    <t>Qingdao Jonoon</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
   </si>
   <si>
     <t>Nantong Zhiyun</t>
   </si>
   <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
-    <t>Qingdao Jonoon</t>
-  </si>
-  <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
-    <t>Shanghai SIPG</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
@@ -250,10 +253,13 @@
     <t>Valur</t>
   </si>
   <si>
+    <t>Indy Eleven</t>
+  </si>
+  <si>
     <t>Coquimbo Unido</t>
   </si>
   <si>
-    <t>Indy Eleven</t>
+    <t>Detroit City FC</t>
   </si>
   <si>
     <t>New York RB</t>
@@ -262,75 +268,72 @@
     <t>New England Revolution</t>
   </si>
   <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
     <t>Louisville City</t>
   </si>
   <si>
     <t>Houston Dynamo</t>
   </si>
   <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
     <t>Nashville SC</t>
   </si>
   <si>
-    <t>Chicago Fire</t>
-  </si>
-  <si>
-    <t>Sporting KC</t>
-  </si>
-  <si>
     <t>Cavalry FC</t>
   </si>
   <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>El Paso Locomotive</t>
+  </si>
+  <si>
     <t>Tulsa Roughnecks</t>
   </si>
   <si>
-    <t>Colorado Rapids</t>
-  </si>
-  <si>
-    <t>El Paso Locomotive</t>
-  </si>
-  <si>
     <t>Oakland Roots</t>
   </si>
   <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
     <t>Los Angeles FC</t>
   </si>
   <si>
-    <t>SJ Earthquakes</t>
-  </si>
-  <si>
     <t>Vancouver Whitecaps</t>
   </si>
   <si>
     <t>Incheon United</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
     <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Suwon</t>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Dalian Yifang</t>
   </si>
   <si>
-    <t>Beijing Guoan</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
@@ -355,10 +358,13 @@
     <t>Fylkir</t>
   </si>
   <si>
+    <t>Charleston Battery</t>
+  </si>
+  <si>
     <t>Curicó Unido</t>
   </si>
   <si>
-    <t>Charleston Battery</t>
+    <t>Loudoun United</t>
   </si>
   <si>
     <t>FC Cincinnati</t>
@@ -367,43 +373,40 @@
     <t>Atlanta United FC</t>
   </si>
   <si>
-    <t>Loudoun United</t>
-  </si>
-  <si>
     <t>Pittsburgh Riverhounds</t>
   </si>
   <si>
     <t>Minnesota United</t>
   </si>
   <si>
+    <t>Montreal Impact</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
     <t>Philadelphia Union</t>
   </si>
   <si>
-    <t>Montreal Impact</t>
-  </si>
-  <si>
-    <t>Real Salt Lake</t>
-  </si>
-  <si>
     <t>Atlético Ottawa</t>
   </si>
   <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
     <t>Miami FC</t>
   </si>
   <si>
-    <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
     <t>Memphis 901</t>
   </si>
   <si>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
     <t>St. Louis City</t>
-  </si>
-  <si>
-    <t>Seattle Sounders</t>
   </si>
   <si>
     <t>Austin</t>
@@ -889,25 +892,25 @@
         <v>45119</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I2">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -922,10 +925,10 @@
         <v>3.15</v>
       </c>
       <c r="N2">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="P2">
         <v>1.41</v>
@@ -949,10 +952,10 @@
         <v>2.1</v>
       </c>
       <c r="W2">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="X2">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Y2">
         <v>1.73</v>
@@ -996,103 +999,103 @@
         <v>45119</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I3">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="J3">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
+        <v>1.85</v>
+      </c>
+      <c r="O3">
+        <v>1.88</v>
+      </c>
+      <c r="P3">
+        <v>1.36</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>1.12</v>
+      </c>
+      <c r="U3">
+        <v>1.18</v>
+      </c>
+      <c r="V3">
+        <v>2.2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.69</v>
+      </c>
+      <c r="Z3">
+        <v>1.5</v>
+      </c>
+      <c r="AA3">
+        <v>3.19</v>
+      </c>
+      <c r="AB3">
+        <v>1.26</v>
+      </c>
+      <c r="AC3">
+        <v>9.5</v>
+      </c>
+      <c r="AD3">
+        <v>4.67</v>
+      </c>
+      <c r="AE3">
+        <v>1.29</v>
+      </c>
+      <c r="AF3">
+        <v>1.57</v>
+      </c>
+      <c r="AG3">
         <v>1.95</v>
       </c>
-      <c r="O3">
-        <v>1.75</v>
-      </c>
-      <c r="P3">
-        <v>1.48</v>
-      </c>
-      <c r="Q3">
-        <v>2.5</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1.72</v>
-      </c>
-      <c r="T3">
-        <v>1.85</v>
-      </c>
-      <c r="U3">
-        <v>1.28</v>
-      </c>
-      <c r="V3">
-        <v>1.2</v>
-      </c>
-      <c r="W3">
-        <v>0.2</v>
-      </c>
-      <c r="X3">
-        <v>1.4</v>
-      </c>
-      <c r="Y3">
-        <v>1.33</v>
-      </c>
-      <c r="Z3">
-        <v>1.31</v>
-      </c>
-      <c r="AA3">
-        <v>2.64</v>
-      </c>
-      <c r="AB3">
-        <v>2.9</v>
-      </c>
-      <c r="AC3">
-        <v>8</v>
-      </c>
-      <c r="AD3">
-        <v>1.59</v>
-      </c>
-      <c r="AE3">
-        <v>1.44</v>
-      </c>
-      <c r="AF3">
-        <v>1.75</v>
-      </c>
-      <c r="AG3">
-        <v>2.25</v>
-      </c>
       <c r="AH3">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="AI3">
-        <v>4.33</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1103,103 +1106,103 @@
         <v>45119</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H4">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J4">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="L4">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="P4">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.72</v>
+      </c>
+      <c r="T4">
+        <v>1.85</v>
+      </c>
+      <c r="U4">
+        <v>1.28</v>
+      </c>
+      <c r="V4">
+        <v>1.2</v>
+      </c>
+      <c r="W4">
+        <v>0.27</v>
+      </c>
+      <c r="X4">
+        <v>1.36</v>
+      </c>
+      <c r="Y4">
+        <v>1.33</v>
+      </c>
+      <c r="Z4">
+        <v>1.31</v>
+      </c>
+      <c r="AA4">
+        <v>2.64</v>
+      </c>
+      <c r="AB4">
         <v>2.9</v>
       </c>
-      <c r="R4">
-        <v>1.68</v>
-      </c>
-      <c r="S4">
-        <v>2.1</v>
-      </c>
-      <c r="T4">
-        <v>1.72</v>
-      </c>
-      <c r="U4">
-        <v>1.27</v>
-      </c>
-      <c r="V4">
-        <v>1.32</v>
-      </c>
-      <c r="W4">
-        <v>1.5</v>
-      </c>
-      <c r="X4">
-        <v>1.1</v>
-      </c>
-      <c r="Y4">
-        <v>1.64</v>
-      </c>
-      <c r="Z4">
-        <v>1.6</v>
-      </c>
-      <c r="AA4">
-        <v>3.24</v>
-      </c>
-      <c r="AB4">
-        <v>2.1</v>
-      </c>
       <c r="AC4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AE4">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AF4">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AG4">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AH4">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="AI4">
-        <v>3.74</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1210,103 +1213,103 @@
         <v>45119</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1.56</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
-        <v>4.55</v>
+        <v>2.05</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>1.25</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
+        <v>1.8</v>
+      </c>
+      <c r="O5">
+        <v>1.9</v>
+      </c>
+      <c r="P5">
+        <v>1.38</v>
+      </c>
+      <c r="Q5">
+        <v>2.9</v>
+      </c>
+      <c r="R5">
+        <v>1.68</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.72</v>
+      </c>
+      <c r="U5">
+        <v>1.27</v>
+      </c>
+      <c r="V5">
+        <v>1.32</v>
+      </c>
+      <c r="W5">
+        <v>1.45</v>
+      </c>
+      <c r="X5">
+        <v>1.09</v>
+      </c>
+      <c r="Y5">
         <v>1.64</v>
       </c>
-      <c r="O5">
-        <v>2.12</v>
-      </c>
-      <c r="P5">
-        <v>1.36</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>1.12</v>
-      </c>
-      <c r="U5">
-        <v>1.18</v>
-      </c>
-      <c r="V5">
-        <v>2.2</v>
-      </c>
-      <c r="W5">
-        <v>1.9</v>
-      </c>
-      <c r="X5">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y5">
-        <v>1.69</v>
-      </c>
       <c r="Z5">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA5">
-        <v>3.19</v>
+        <v>3.24</v>
       </c>
       <c r="AB5">
-        <v>1.26</v>
+        <v>2.1</v>
       </c>
       <c r="AC5">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD5">
-        <v>4.67</v>
+        <v>2</v>
       </c>
       <c r="AE5">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF5">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AH5">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="AI5">
-        <v>3.42</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1317,94 +1320,94 @@
         <v>45119</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="H6">
-        <v>4.17</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="J6">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>9.449999999999999</v>
+        <v>12</v>
       </c>
       <c r="L6">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M6">
-        <v>3.23</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="O6">
-        <v>1.68</v>
+        <v>2.13</v>
       </c>
       <c r="P6">
+        <v>1.38</v>
+      </c>
+      <c r="Q6">
+        <v>2.9</v>
+      </c>
+      <c r="R6">
+        <v>1.75</v>
+      </c>
+      <c r="S6">
+        <v>1.95</v>
+      </c>
+      <c r="T6">
+        <v>1.23</v>
+      </c>
+      <c r="U6">
+        <v>1.3</v>
+      </c>
+      <c r="V6">
+        <v>1.9</v>
+      </c>
+      <c r="W6">
+        <v>2.13</v>
+      </c>
+      <c r="X6">
+        <v>1.67</v>
+      </c>
+      <c r="Y6">
+        <v>1.75</v>
+      </c>
+      <c r="Z6">
+        <v>1.8</v>
+      </c>
+      <c r="AA6">
+        <v>3.55</v>
+      </c>
+      <c r="AB6">
         <v>1.44</v>
       </c>
-      <c r="Q6">
-        <v>2.74</v>
-      </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.91</v>
-      </c>
-      <c r="T6">
-        <v>1.35</v>
-      </c>
-      <c r="U6">
-        <v>1.35</v>
-      </c>
-      <c r="V6">
-        <v>1.58</v>
-      </c>
-      <c r="W6">
-        <v>1.14</v>
-      </c>
-      <c r="X6">
-        <v>0.29</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>1.22</v>
-      </c>
-      <c r="AA6">
-        <v>3.22</v>
-      </c>
-      <c r="AB6">
-        <v>1.8</v>
-      </c>
       <c r="AC6">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AE6">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF6">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AG6">
         <v>2.03</v>
@@ -1424,100 +1427,100 @@
         <v>45119</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7">
-        <v>8.289999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H7">
-        <v>1.37</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>3.83</v>
+        <v>2.7</v>
       </c>
       <c r="J7">
         <v>1.04</v>
       </c>
       <c r="K7">
-        <v>8.5</v>
+        <v>14.25</v>
       </c>
       <c r="L7">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M7">
-        <v>3.84</v>
+        <v>4.12</v>
       </c>
       <c r="N7">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="O7">
-        <v>2.07</v>
+        <v>2.29</v>
       </c>
       <c r="P7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
-        <v>2.72</v>
+        <v>3.29</v>
       </c>
       <c r="R7">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S7">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="U7">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="Y7">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="Z7">
         <v>1.6</v>
       </c>
       <c r="AA7">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="AB7">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="AC7">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AF7">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AG7">
-        <v>2.03</v>
+        <v>2.13</v>
       </c>
       <c r="AH7">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="AI7">
         <v>3.8</v>
@@ -1531,25 +1534,25 @@
         <v>45119</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8">
-        <v>2.95</v>
+        <v>1.22</v>
       </c>
       <c r="H8">
-        <v>1.46</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
-        <v>12.31</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>1.04</v>
@@ -1564,10 +1567,10 @@
         <v>3.89</v>
       </c>
       <c r="N8">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="O8">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="P8">
         <v>1.34</v>
@@ -1591,10 +1594,10 @@
         <v>3.36</v>
       </c>
       <c r="W8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="X8">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Y8">
         <v>1.47</v>
@@ -1638,100 +1641,100 @@
         <v>45119</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>1.32</v>
+        <v>3.7</v>
       </c>
       <c r="I9">
-        <v>5.91</v>
+        <v>1.83</v>
       </c>
       <c r="J9">
         <v>1.04</v>
       </c>
       <c r="K9">
-        <v>14.25</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M9">
-        <v>4.12</v>
+        <v>3.84</v>
       </c>
       <c r="N9">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="O9">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>3.29</v>
+        <v>2.72</v>
       </c>
       <c r="R9">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="T9">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="U9">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V9">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="W9">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
         <v>1.13</v>
       </c>
       <c r="Y9">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="Z9">
         <v>1.6</v>
       </c>
       <c r="AA9">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="AB9">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="AC9">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD9">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AE9">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AG9">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="AH9">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="AI9">
         <v>3.8</v>
@@ -1745,94 +1748,94 @@
         <v>45119</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10">
-        <v>4.8</v>
+        <v>1.95</v>
       </c>
       <c r="H10">
-        <v>1.31</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
-        <v>7.23</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="L10">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M10">
-        <v>3.75</v>
+        <v>3.23</v>
       </c>
       <c r="N10">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="O10">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="P10">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T10">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="U10">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="W10">
+        <v>1.13</v>
+      </c>
+      <c r="X10">
+        <v>0.38</v>
+      </c>
+      <c r="Y10">
         <v>2</v>
       </c>
-      <c r="X10">
-        <v>1.88</v>
-      </c>
-      <c r="Y10">
-        <v>1.75</v>
-      </c>
       <c r="Z10">
+        <v>1.22</v>
+      </c>
+      <c r="AA10">
+        <v>3.22</v>
+      </c>
+      <c r="AB10">
         <v>1.8</v>
       </c>
-      <c r="AA10">
-        <v>3.55</v>
-      </c>
-      <c r="AB10">
-        <v>1.44</v>
-      </c>
       <c r="AC10">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="AE10">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AG10">
         <v>2.03</v>
@@ -1845,32 +1848,32 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11">
-        <v>9543</v>
+      <c r="A11" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>45119</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -1885,10 +1888,10 @@
         <v>3.3</v>
       </c>
       <c r="N11">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="O11">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -1953,22 +1956,22 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>45119</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>1.83</v>
@@ -2059,32 +2062,32 @@
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13">
-        <v>9543</v>
+      <c r="A13" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45119</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H13">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="I13">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2099,10 +2102,10 @@
         <v>4.33</v>
       </c>
       <c r="N13">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="O13">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="P13">
         <v>1.28</v>
@@ -2166,23 +2169,23 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14">
-        <v>9543</v>
+      <c r="A14" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>45119</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <v>1.14</v>
@@ -2274,31 +2277,31 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>45119</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H15">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I15">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J15">
         <v>1.05</v>
@@ -2307,16 +2310,16 @@
         <v>8</v>
       </c>
       <c r="L15">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O15">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P15">
         <v>1.47</v>
@@ -2380,32 +2383,32 @@
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16">
-        <v>9543</v>
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>45119</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="H16">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>3.29</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
         <v>1.08</v>
@@ -2414,16 +2417,16 @@
         <v>7</v>
       </c>
       <c r="L16">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="O16">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2487,32 +2490,32 @@
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17">
-        <v>9543</v>
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>45119</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="H17">
-        <v>5.55</v>
+        <v>6.2</v>
       </c>
       <c r="I17">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2527,10 +2530,10 @@
         <v>4.6</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="O17">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="P17">
         <v>1.26</v>
@@ -2595,31 +2598,31 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>45119</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="H18">
-        <v>6.07</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>7.71</v>
+        <v>6.6</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2634,10 +2637,10 @@
         <v>6</v>
       </c>
       <c r="N18">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="O18">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="P18">
         <v>1.2</v>
@@ -2702,537 +2705,537 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>45119</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H19">
         <v>3.4</v>
       </c>
       <c r="I19">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M19">
         <v>3.5</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O19">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="P19">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T19">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U19">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="W19">
-        <v>2.29</v>
+        <v>0.78</v>
       </c>
       <c r="X19">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Z19">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AA19">
+        <v>2.98</v>
+      </c>
+      <c r="AB19">
+        <v>1.9</v>
+      </c>
+      <c r="AC19">
+        <v>8.1</v>
+      </c>
+      <c r="AD19">
+        <v>2.14</v>
+      </c>
+      <c r="AE19">
+        <v>1.37</v>
+      </c>
+      <c r="AF19">
+        <v>1.7</v>
+      </c>
+      <c r="AG19">
+        <v>2.12</v>
+      </c>
+      <c r="AH19">
         <v>2.93</v>
       </c>
-      <c r="AB19">
-        <v>1.45</v>
-      </c>
-      <c r="AC19">
-        <v>8.5</v>
-      </c>
-      <c r="AD19">
-        <v>3.33</v>
-      </c>
-      <c r="AE19">
-        <v>1.25</v>
-      </c>
-      <c r="AF19">
-        <v>1.47</v>
-      </c>
-      <c r="AG19">
-        <v>1.85</v>
-      </c>
-      <c r="AH19">
-        <v>2.37</v>
-      </c>
       <c r="AI19">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45119</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H20">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I20">
-        <v>2.92</v>
+        <v>3.95</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L20">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M20">
         <v>3.5</v>
       </c>
       <c r="N20">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="O20">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="P20">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R20">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U20">
+        <v>1.18</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>2.29</v>
+      </c>
+      <c r="X20">
+        <v>1.43</v>
+      </c>
+      <c r="Y20">
+        <v>1.51</v>
+      </c>
+      <c r="Z20">
+        <v>1.42</v>
+      </c>
+      <c r="AA20">
+        <v>2.93</v>
+      </c>
+      <c r="AB20">
+        <v>1.45</v>
+      </c>
+      <c r="AC20">
+        <v>8.5</v>
+      </c>
+      <c r="AD20">
+        <v>3.33</v>
+      </c>
+      <c r="AE20">
         <v>1.25</v>
       </c>
-      <c r="V20">
-        <v>1.53</v>
-      </c>
-      <c r="W20">
-        <v>0.78</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20">
-        <v>1.52</v>
-      </c>
-      <c r="Z20">
-        <v>1.46</v>
-      </c>
-      <c r="AA20">
-        <v>2.98</v>
-      </c>
-      <c r="AB20">
-        <v>1.9</v>
-      </c>
-      <c r="AC20">
-        <v>8.1</v>
-      </c>
-      <c r="AD20">
-        <v>2.14</v>
-      </c>
-      <c r="AE20">
-        <v>1.37</v>
-      </c>
       <c r="AF20">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AG20">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="AH20">
-        <v>2.93</v>
+        <v>2.37</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>45119</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="H21">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I21">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>1.04</v>
       </c>
       <c r="K21">
-        <v>13.25</v>
+        <v>12.5</v>
       </c>
       <c r="L21">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="O21">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="P21">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q21">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R21">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="U21">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V21">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="Y21">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="Z21">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AA21">
-        <v>3.04</v>
+        <v>2.48</v>
       </c>
       <c r="AB21">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AC21">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD21">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="AE21">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AF21">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AG21">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="AH21">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="AI21">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>45119</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="H22">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I22">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K22">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="L22">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="P22">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q22">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="R22">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T22">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="U22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Z22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AA22">
-        <v>2.67</v>
+        <v>3.04</v>
       </c>
       <c r="AB22">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="AE22">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AF22">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AG22">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="AH22">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="AI22">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
         <v>45119</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="H23">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="J23">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K23">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L23">
+        <v>1.18</v>
+      </c>
+      <c r="M23">
+        <v>4.75</v>
+      </c>
+      <c r="N23">
+        <v>1.54</v>
+      </c>
+      <c r="O23">
+        <v>2.35</v>
+      </c>
+      <c r="P23">
         <v>1.28</v>
       </c>
-      <c r="M23">
-        <v>3.5</v>
-      </c>
-      <c r="N23">
-        <v>1.86</v>
-      </c>
-      <c r="O23">
-        <v>1.92</v>
-      </c>
-      <c r="P23">
-        <v>1.38</v>
-      </c>
       <c r="Q23">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
+        <v>1.25</v>
+      </c>
+      <c r="U23">
         <v>1.2</v>
       </c>
-      <c r="U23">
-        <v>1.22</v>
-      </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
+        <v>2.4</v>
+      </c>
+      <c r="X23">
         <v>1</v>
       </c>
-      <c r="X23">
-        <v>0.6</v>
-      </c>
       <c r="Y23">
+        <v>1.5</v>
+      </c>
+      <c r="Z23">
         <v>1.17</v>
       </c>
-      <c r="Z23">
-        <v>1.31</v>
-      </c>
       <c r="AA23">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AB23">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AC23">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD23">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="AE23">
+        <v>1.26</v>
+      </c>
+      <c r="AF23">
         <v>1.48</v>
       </c>
-      <c r="AF23">
-        <v>1.82</v>
-      </c>
       <c r="AG23">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="AH23">
-        <v>3.34</v>
+        <v>2.43</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3243,25 +3246,25 @@
         <v>45119</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="H24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3344,31 +3347,31 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2">
         <v>45119</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G25">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="H25">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I25">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J25">
         <v>1.03</v>
@@ -3383,10 +3386,10 @@
         <v>4.6</v>
       </c>
       <c r="N25">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="O25">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="P25">
         <v>1.3</v>
@@ -3451,85 +3454,85 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>45119</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H26">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="I26">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="J26">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M26">
         <v>3.75</v>
       </c>
       <c r="N26">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="P26">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q26">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R26">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S26">
         <v>2.05</v>
       </c>
       <c r="T26">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="U26">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W26">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="Y26">
-        <v>1.59</v>
+        <v>1.12</v>
       </c>
       <c r="Z26">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AA26">
-        <v>2.97</v>
+        <v>2.26</v>
       </c>
       <c r="AB26">
         <v>1.64</v>
@@ -3541,111 +3544,111 @@
         <v>2.67</v>
       </c>
       <c r="AE26">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AF26">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AG26">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AH26">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AI26">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45119</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="H27">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I27">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="J27">
         <v>1.04</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="L27">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="N27">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P27">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="U27">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W27">
+        <v>1.45</v>
+      </c>
+      <c r="X27">
+        <v>1.82</v>
+      </c>
+      <c r="Y27">
+        <v>1.72</v>
+      </c>
+      <c r="Z27">
         <v>1.5</v>
       </c>
-      <c r="X27">
-        <v>0.45</v>
-      </c>
-      <c r="Y27">
-        <v>1.12</v>
-      </c>
-      <c r="Z27">
-        <v>1.14</v>
-      </c>
       <c r="AA27">
-        <v>2.26</v>
+        <v>3.22</v>
       </c>
       <c r="AB27">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD27">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="AE27">
         <v>1.29</v>
@@ -3665,138 +3668,138 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
         <v>45119</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28">
+        <v>1.83</v>
+      </c>
+      <c r="H28">
+        <v>3.95</v>
+      </c>
+      <c r="I28">
+        <v>3.95</v>
+      </c>
+      <c r="J28">
+        <v>1.03</v>
+      </c>
+      <c r="K28">
+        <v>13</v>
+      </c>
+      <c r="L28">
+        <v>1.28</v>
+      </c>
+      <c r="M28">
+        <v>3.75</v>
+      </c>
+      <c r="N28">
         <v>1.8</v>
       </c>
-      <c r="H28">
-        <v>3.6</v>
-      </c>
-      <c r="I28">
-        <v>3.4</v>
-      </c>
-      <c r="J28">
-        <v>1.04</v>
-      </c>
-      <c r="K28">
-        <v>15.5</v>
-      </c>
-      <c r="L28">
+      <c r="O28">
+        <v>2.02</v>
+      </c>
+      <c r="P28">
+        <v>1.36</v>
+      </c>
+      <c r="Q28">
+        <v>3.1</v>
+      </c>
+      <c r="R28">
+        <v>1.72</v>
+      </c>
+      <c r="S28">
+        <v>2.05</v>
+      </c>
+      <c r="T28">
+        <v>1.28</v>
+      </c>
+      <c r="U28">
         <v>1.22</v>
       </c>
-      <c r="M28">
-        <v>4.4</v>
-      </c>
-      <c r="N28">
-        <v>1.6</v>
-      </c>
-      <c r="O28">
-        <v>2.19</v>
-      </c>
-      <c r="P28">
-        <v>1.32</v>
-      </c>
-      <c r="Q28">
-        <v>3.2</v>
-      </c>
-      <c r="R28">
-        <v>1.67</v>
-      </c>
-      <c r="S28">
-        <v>2.1</v>
-      </c>
-      <c r="T28">
-        <v>1.24</v>
-      </c>
-      <c r="U28">
-        <v>1.27</v>
-      </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>1.45</v>
+        <v>2.36</v>
       </c>
       <c r="X28">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Z28">
+        <v>1.38</v>
+      </c>
+      <c r="AA28">
+        <v>2.97</v>
+      </c>
+      <c r="AB28">
+        <v>1.64</v>
+      </c>
+      <c r="AC28">
+        <v>8</v>
+      </c>
+      <c r="AD28">
+        <v>2.67</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
         <v>1.5</v>
       </c>
-      <c r="AA28">
-        <v>3.22</v>
-      </c>
-      <c r="AB28">
-        <v>1.55</v>
-      </c>
-      <c r="AC28">
-        <v>8.5</v>
-      </c>
-      <c r="AD28">
-        <v>3.01</v>
-      </c>
-      <c r="AE28">
-        <v>1.29</v>
-      </c>
-      <c r="AF28">
-        <v>1.53</v>
-      </c>
       <c r="AG28">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AH28">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AI28">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
         <v>45119</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="H29">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="I29">
-        <v>3.74</v>
+        <v>3.45</v>
       </c>
       <c r="J29">
         <v>1.05</v>
@@ -3811,10 +3814,10 @@
         <v>3.1</v>
       </c>
       <c r="N29">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="P29">
         <v>1.42</v>
@@ -3879,216 +3882,216 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
         <v>45119</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H30">
         <v>3.3</v>
       </c>
       <c r="I30">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N30">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="O30">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W30">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="Y30">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Z30">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AA30">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>45119</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G31">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H31">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I31">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J31">
         <v>1.04</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="L31">
+        <v>1.26</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>1.86</v>
+      </c>
+      <c r="O31">
+        <v>1.92</v>
+      </c>
+      <c r="P31">
+        <v>1.36</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>1.72</v>
+      </c>
+      <c r="S31">
+        <v>2.05</v>
+      </c>
+      <c r="T31">
         <v>1.25</v>
       </c>
-      <c r="M31">
-        <v>3.6</v>
-      </c>
-      <c r="N31">
+      <c r="U31">
+        <v>1.25</v>
+      </c>
+      <c r="V31">
+        <v>1.82</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>1.56</v>
+      </c>
+      <c r="Y31">
+        <v>1.5</v>
+      </c>
+      <c r="Z31">
+        <v>1.74</v>
+      </c>
+      <c r="AA31">
+        <v>3.24</v>
+      </c>
+      <c r="AB31">
         <v>1.89</v>
       </c>
-      <c r="O31">
-        <v>1.81</v>
-      </c>
-      <c r="P31">
-        <v>1.44</v>
-      </c>
-      <c r="Q31">
-        <v>2.63</v>
-      </c>
-      <c r="R31">
-        <v>1.91</v>
-      </c>
-      <c r="S31">
-        <v>1.91</v>
-      </c>
-      <c r="T31">
-        <v>1.29</v>
-      </c>
-      <c r="U31">
-        <v>1.3</v>
-      </c>
-      <c r="V31">
-        <v>1.7</v>
-      </c>
-      <c r="W31">
-        <v>0.8</v>
-      </c>
-      <c r="X31">
-        <v>0.64</v>
-      </c>
-      <c r="Y31">
-        <v>1.46</v>
-      </c>
-      <c r="Z31">
-        <v>1.18</v>
-      </c>
-      <c r="AA31">
-        <v>2.64</v>
-      </c>
-      <c r="AB31">
-        <v>1.54</v>
-      </c>
       <c r="AC31">
-        <v>6.25</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD31">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="AE31">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AF31">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AG31">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AH31">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="AI31">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4099,103 +4102,103 @@
         <v>45119</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G32">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="H32">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I32">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J32">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O32">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="P32">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="X32">
-        <v>1.56</v>
+        <v>0.38</v>
       </c>
       <c r="Y32">
         <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="AA32">
-        <v>3.24</v>
+        <v>2.65</v>
       </c>
       <c r="AB32">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>2.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -4206,25 +4209,25 @@
         <v>45119</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="H33">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I33">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="J33">
         <v>1.04</v>
@@ -4239,10 +4242,10 @@
         <v>3.67</v>
       </c>
       <c r="N33">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="O33">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="P33">
         <v>1.35</v>
@@ -4307,94 +4310,94 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>45119</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="H34">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="I34">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="J34">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>19</v>
+        <v>12.75</v>
       </c>
       <c r="L34">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>3.92</v>
       </c>
       <c r="N34">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="O34">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="P34">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q34">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="R34">
         <v>1.57</v>
       </c>
       <c r="S34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T34">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="U34">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="V34">
-        <v>2.57</v>
+        <v>1.55</v>
       </c>
       <c r="W34">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Y34">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="Z34">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AA34">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="AB34">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AC34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>3.32</v>
+        <v>2.44</v>
       </c>
       <c r="AE34">
         <v>1.22</v>
@@ -4414,94 +4417,94 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>45119</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G35">
-        <v>2.55</v>
+        <v>1.64</v>
       </c>
       <c r="H35">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="I35">
-        <v>2.36</v>
+        <v>5.2</v>
       </c>
       <c r="J35">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K35">
-        <v>12.75</v>
+        <v>19</v>
       </c>
       <c r="L35">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="M35">
-        <v>3.92</v>
+        <v>5</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="O35">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="P35">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="R35">
         <v>1.57</v>
       </c>
       <c r="S35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T35">
+        <v>1.18</v>
+      </c>
+      <c r="U35">
+        <v>1.21</v>
+      </c>
+      <c r="V35">
+        <v>2.57</v>
+      </c>
+      <c r="W35">
+        <v>1.91</v>
+      </c>
+      <c r="X35">
+        <v>1.6</v>
+      </c>
+      <c r="Y35">
+        <v>1.93</v>
+      </c>
+      <c r="Z35">
         <v>1.42</v>
       </c>
-      <c r="U35">
-        <v>1.32</v>
-      </c>
-      <c r="V35">
-        <v>1.55</v>
-      </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
-      <c r="X35">
-        <v>1.4</v>
-      </c>
-      <c r="Y35">
-        <v>1.43</v>
-      </c>
-      <c r="Z35">
-        <v>1.29</v>
-      </c>
       <c r="AA35">
-        <v>2.72</v>
+        <v>3.35</v>
       </c>
       <c r="AB35">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AC35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD35">
-        <v>2.44</v>
+        <v>3.32</v>
       </c>
       <c r="AE35">
         <v>1.22</v>
@@ -4521,31 +4524,31 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>45119</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G36">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="H36">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I36">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J36">
         <v>1.02</v>
@@ -4560,10 +4563,10 @@
         <v>4.75</v>
       </c>
       <c r="N36">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O36">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="P36">
         <v>1.3</v>
